--- a/docs/專題簡報高中職組決賽名冊.xlsx
+++ b/docs/專題簡報高中職組決賽名冊.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="116">
   <si>
     <t>序</t>
   </si>
@@ -51,91 +51,67 @@
     <t>大甲區致用高中</t>
   </si>
   <si>
-    <t>陳思廷</t>
-  </si>
-  <si>
-    <t>鄭雅婷</t>
-  </si>
-  <si>
-    <t>yg65p3</t>
-  </si>
-  <si>
-    <t>n24gw7</t>
-  </si>
-  <si>
-    <t>龍嬿云</t>
-  </si>
-  <si>
-    <t>謝欣妤</t>
-  </si>
-  <si>
-    <t>nc88r8</t>
-  </si>
-  <si>
-    <t>tv74tv6</t>
-  </si>
-  <si>
-    <t>大里區大明高中</t>
-  </si>
-  <si>
-    <t>林沛葶</t>
-  </si>
-  <si>
-    <t>紀孟君</t>
-  </si>
-  <si>
-    <t>s58p6</t>
-  </si>
-  <si>
-    <t>h93xb4</t>
-  </si>
-  <si>
-    <t>太平區光華高工</t>
-  </si>
-  <si>
-    <t>何楷崎</t>
-  </si>
-  <si>
-    <t>楊覲瑀</t>
-  </si>
-  <si>
-    <t>黃釧泉</t>
-  </si>
-  <si>
-    <t>gw88fr3</t>
-  </si>
-  <si>
-    <t>dxb47hp1</t>
+    <t>周玫君</t>
+  </si>
+  <si>
+    <t>劉于萍</t>
+  </si>
+  <si>
+    <t>梁雅宜</t>
+  </si>
+  <si>
+    <t>wh37sm7</t>
+  </si>
+  <si>
+    <t>w5cd8</t>
   </si>
   <si>
     <t>太平區長億高中</t>
   </si>
   <si>
-    <t>謝秉燁</t>
-  </si>
-  <si>
-    <t>林安芸</t>
+    <t>廖品錠</t>
+  </si>
+  <si>
+    <t>江昊城</t>
   </si>
   <si>
     <t>鄭瑞娟</t>
   </si>
   <si>
-    <t>x9k4</t>
-  </si>
-  <si>
-    <t>n67b5</t>
-  </si>
-  <si>
-    <t>姚奕瑋</t>
-  </si>
-  <si>
-    <t>林映汝</t>
-  </si>
-  <si>
-    <t>ygw22r5</t>
-  </si>
-  <si>
-    <t>jkf89et8</t>
+    <t>h31wh2</t>
+  </si>
+  <si>
+    <t>ygw26y6</t>
+  </si>
+  <si>
+    <t>陳奕錡</t>
+  </si>
+  <si>
+    <t>潘紫昕</t>
+  </si>
+  <si>
+    <t>hp35n1</t>
+  </si>
+  <si>
+    <t>kfr83jk4</t>
+  </si>
+  <si>
+    <t>北屯區葳格高中</t>
+  </si>
+  <si>
+    <t>王崇祐</t>
+  </si>
+  <si>
+    <t>羅詮盛</t>
+  </si>
+  <si>
+    <t>江吉偉</t>
+  </si>
+  <si>
+    <t>whp15fr9</t>
+  </si>
+  <si>
+    <t>gw11m4</t>
   </si>
   <si>
     <t>北屯區衛道高中</t>
@@ -144,220 +120,253 @@
     <t>李俊杰</t>
   </si>
   <si>
-    <t>羅國平</t>
+    <t>徐家揚</t>
   </si>
   <si>
     <t>郭學政</t>
   </si>
   <si>
-    <t>fr15v8</t>
-  </si>
-  <si>
-    <t>rsm15b3</t>
-  </si>
-  <si>
-    <t>林雨柔</t>
-  </si>
-  <si>
-    <t>李宗祐</t>
-  </si>
-  <si>
-    <t>frs76bj5</t>
-  </si>
-  <si>
-    <t>gwh88b6</t>
+    <t>anc51jk3</t>
+  </si>
+  <si>
+    <t>pe60bj6</t>
+  </si>
+  <si>
+    <t>左書瑋</t>
+  </si>
+  <si>
+    <t>初幸惠</t>
+  </si>
+  <si>
+    <t>ygw15y8</t>
+  </si>
+  <si>
+    <t>nc46kf6</t>
   </si>
   <si>
     <t>北區曉明女中</t>
   </si>
   <si>
-    <t>曾子嘉</t>
-  </si>
-  <si>
-    <t>劉芃欣</t>
+    <t>張采婕</t>
+  </si>
+  <si>
+    <t>許庭瑋</t>
   </si>
   <si>
     <t>劉國聲</t>
   </si>
   <si>
-    <t>fr50an6</t>
-  </si>
-  <si>
-    <t>etv22c5</t>
-  </si>
-  <si>
-    <t>劉芸嘉</t>
-  </si>
-  <si>
-    <t>黃韻文</t>
-  </si>
-  <si>
-    <t>tv98c7</t>
-  </si>
-  <si>
-    <t>k17c3</t>
+    <t>tv57yg3</t>
+  </si>
+  <si>
+    <t>xb3kf2</t>
+  </si>
+  <si>
+    <t>蔡毓溱</t>
+  </si>
+  <si>
+    <t>陳佳莘</t>
+  </si>
+  <si>
+    <t>rs44fr6</t>
+  </si>
+  <si>
+    <t>h65my6</t>
+  </si>
+  <si>
+    <t>后里區后綜高中</t>
+  </si>
+  <si>
+    <t>林晉如</t>
+  </si>
+  <si>
+    <t>許僑芸</t>
+  </si>
+  <si>
+    <t>唐慧玲</t>
+  </si>
+  <si>
+    <t>tv95b4</t>
+  </si>
+  <si>
+    <t>kf91w1</t>
+  </si>
+  <si>
+    <t>西屯區文華高中</t>
+  </si>
+  <si>
+    <t>曾欣萍</t>
+  </si>
+  <si>
+    <t>廖偉良</t>
+  </si>
+  <si>
+    <t>gw68f3</t>
+  </si>
+  <si>
+    <t>wh87n3</t>
+  </si>
+  <si>
+    <t>西屯區東大附中</t>
+  </si>
+  <si>
+    <t>李庭毅</t>
+  </si>
+  <si>
+    <t>高儁</t>
+  </si>
+  <si>
+    <t>林志勳</t>
+  </si>
+  <si>
+    <t>kf42f4</t>
+  </si>
+  <si>
+    <t>et75k4</t>
   </si>
   <si>
     <t>西區忠明高中</t>
   </si>
   <si>
-    <t>陳宥佑</t>
-  </si>
-  <si>
-    <t>廖奐晴</t>
+    <t>何芳瑜</t>
   </si>
   <si>
     <t>張淑姿</t>
   </si>
   <si>
-    <t>yg15e2</t>
-  </si>
-  <si>
-    <t>sm36pe2</t>
-  </si>
-  <si>
-    <t>邱奕彙</t>
-  </si>
-  <si>
-    <t>余思嬅</t>
-  </si>
-  <si>
-    <t>劉容菁</t>
-  </si>
-  <si>
-    <t>dxb33dx9</t>
-  </si>
-  <si>
-    <t>w85yg7</t>
+    <t>s54c2</t>
+  </si>
+  <si>
+    <t>tv73s1</t>
   </si>
   <si>
     <t>西區臺中女中</t>
   </si>
   <si>
-    <t>劉姿伶</t>
-  </si>
-  <si>
-    <t>洪梓綾</t>
-  </si>
-  <si>
-    <t>曾鈴惠</t>
-  </si>
-  <si>
-    <t>dx85p9</t>
-  </si>
-  <si>
-    <t>gw23c7</t>
+    <t>王品淳</t>
+  </si>
+  <si>
+    <t>卓郁慈</t>
+  </si>
+  <si>
+    <t>楊旭喨</t>
+  </si>
+  <si>
+    <t>bj43x7</t>
+  </si>
+  <si>
+    <t>jk13n6</t>
+  </si>
+  <si>
+    <t>東區臺中家商</t>
+  </si>
+  <si>
+    <t>陳美欣</t>
+  </si>
+  <si>
+    <t>陳雅渝</t>
+  </si>
+  <si>
+    <t>朱珍珍</t>
+  </si>
+  <si>
+    <t>wh21kf8</t>
+  </si>
+  <si>
+    <t>x69cd4</t>
   </si>
   <si>
     <t>南屯區惠文高中</t>
   </si>
   <si>
-    <t>賴鈺雯</t>
-  </si>
-  <si>
-    <t>游昱晟</t>
+    <t>黃詩茜</t>
+  </si>
+  <si>
+    <t>李詠恩</t>
   </si>
   <si>
     <t>黃智仁</t>
   </si>
   <si>
-    <t>dx74tv4</t>
-  </si>
-  <si>
-    <t>e96x2</t>
-  </si>
-  <si>
-    <t>烏日區明道中學</t>
-  </si>
-  <si>
-    <t>洪貫庭</t>
-  </si>
-  <si>
-    <t>陳沛安</t>
-  </si>
-  <si>
-    <t>謝翠如</t>
-  </si>
-  <si>
-    <t>bjk66b8</t>
-  </si>
-  <si>
-    <t>xbj9r5</t>
-  </si>
-  <si>
-    <t> 劉凌卉</t>
-  </si>
-  <si>
-    <t>游雅文</t>
-  </si>
-  <si>
-    <t>ncd22n1</t>
-  </si>
-  <si>
-    <t>dx92x1</t>
+    <t>p73et6</t>
+  </si>
+  <si>
+    <t>sm28m5</t>
+  </si>
+  <si>
+    <t>周佩儀</t>
+  </si>
+  <si>
+    <t>林彥禛</t>
+  </si>
+  <si>
+    <t>et85dx6</t>
+  </si>
+  <si>
+    <t>gw63my3</t>
+  </si>
+  <si>
+    <t>南屯區嶺東中學</t>
+  </si>
+  <si>
+    <t>黃姿瑄</t>
+  </si>
+  <si>
+    <t>蕭又豪</t>
+  </si>
+  <si>
+    <t>et86j4</t>
+  </si>
+  <si>
+    <t>wh58x5</t>
   </si>
   <si>
     <t>新社區新社高中</t>
   </si>
   <si>
-    <t>林芳怡</t>
-  </si>
-  <si>
-    <t>廖采容</t>
-  </si>
-  <si>
-    <t>顏永山</t>
-  </si>
-  <si>
-    <t>hpe38b6</t>
-  </si>
-  <si>
-    <t>et35jk7</t>
+    <t>吳祐萱</t>
   </si>
   <si>
     <t>劉芯瑜</t>
   </si>
   <si>
-    <t>羅鈺涵</t>
-  </si>
-  <si>
     <t>陳明秀</t>
   </si>
   <si>
-    <t>frs25s3</t>
-  </si>
-  <si>
-    <t>h2xb9</t>
+    <t>t24pe5</t>
+  </si>
+  <si>
+    <t>dx33x4</t>
+  </si>
+  <si>
+    <t>尤郁琪</t>
+  </si>
+  <si>
+    <t>羅郁涵</t>
+  </si>
+  <si>
+    <t>sm60wh5</t>
+  </si>
+  <si>
+    <t>kf9fr2</t>
   </si>
   <si>
     <t>霧峰區明台高中</t>
   </si>
   <si>
-    <t>鄧允翔</t>
-  </si>
-  <si>
-    <t>葉慈恩</t>
-  </si>
-  <si>
-    <t>饒村榮</t>
-  </si>
-  <si>
-    <t>w6d2</t>
-  </si>
-  <si>
-    <t>c7tv4</t>
-  </si>
-  <si>
-    <t>張祐豪</t>
-  </si>
-  <si>
-    <t>劉宴綺</t>
-  </si>
-  <si>
-    <t>my35k5</t>
-  </si>
-  <si>
-    <t>cd91yg8</t>
+    <t>林升馳</t>
+  </si>
+  <si>
+    <t>李政霖</t>
+  </si>
+  <si>
+    <t>徐素芬</t>
+  </si>
+  <si>
+    <t>wh5wh4</t>
+  </si>
+  <si>
+    <t>hp92n3</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1371,8 @@
     <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1404,15 +1414,17 @@
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1423,22 +1435,22 @@
         <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1449,20 +1461,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1473,22 +1487,22 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1499,22 +1513,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1525,22 +1539,22 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1551,22 +1565,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1577,22 +1591,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1603,22 +1617,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1629,22 +1643,20 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1655,22 +1667,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1681,22 +1693,20 @@
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>66</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1707,22 +1717,22 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1733,22 +1743,22 @@
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1759,22 +1769,22 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1785,22 +1795,22 @@
         <v>8</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="G17" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1811,22 +1821,20 @@
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>94</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1837,22 +1845,22 @@
         <v>8</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1863,22 +1871,22 @@
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="G20" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1889,22 +1897,22 @@
         <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
